--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/4_twenty_bus_radial_grid_dyn_gen_pf_sc_results_0_bus_ward4_resistance.xlsx
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="D2">
-        <v>50.00000283507351</v>
+        <v>50.00000283507352</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="G2">
-        <v>288.6751509631174</v>
+        <v>288.6751509631175</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -1130,13 +1130,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -1151,7 +1151,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.693397756226154E-11</v>
+        <v>-8.693017886143046E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279821172767</v>
+        <v>0.9526279821172761</v>
       </c>
       <c r="Q3">
-        <v>8.709502779460742E-08</v>
+        <v>8.709503032677228E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777255</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279964860261</v>
+        <v>0.9526279964860253</v>
       </c>
       <c r="Q4">
-        <v>5.191990271699881E-07</v>
+        <v>5.191989856258492E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1319,22 +1319,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279361027254</v>
+        <v>0.9526279361027256</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279934610254</v>
+        <v>0.9526279934610248</v>
       </c>
       <c r="Q5">
-        <v>4.282296728285585E-07</v>
+        <v>4.282296753580179E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999995717615</v>
+        <v>179.9999995717614</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.952627997998525</v>
+        <v>0.9526279979985243</v>
       </c>
       <c r="Q6">
-        <v>5.646835317112115E-07</v>
+        <v>5.646835380948265E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280017797749</v>
+        <v>0.952628001779774</v>
       </c>
       <c r="Q7">
-        <v>6.783950760030588E-07</v>
+        <v>6.783950823858053E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279270277241</v>
+        <v>0.952627927027724</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280025360249</v>
+        <v>0.9526280025360241</v>
       </c>
       <c r="Q8">
-        <v>7.011373824092594E-07</v>
+        <v>7.011373887919122E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280040485248</v>
+        <v>0.9526280040485241</v>
       </c>
       <c r="Q9">
-        <v>7.466220029339034E-07</v>
+        <v>7.466220131713865E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1614,16 +1614,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9526279240027233</v>
+        <v>0.9526279240027234</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.9526280055610248</v>
+        <v>0.9526280055610241</v>
       </c>
       <c r="Q10">
-        <v>7.921066130646913E-07</v>
+        <v>7.921066233018867E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1679,16 +1679,16 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9526280063172748</v>
+        <v>0.9526280063172743</v>
       </c>
       <c r="Q11">
-        <v>8.148489214219783E-07</v>
+        <v>8.148489278038622E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999991851422</v>
+        <v>179.9999991851421</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.952627945177727</v>
+        <v>0.9526279451777271</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q12">
-        <v>1.553219760566072E-07</v>
+        <v>1.553219480476384E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279451777271</v>
+        <v>0.952627945177727</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279843860269</v>
+        <v>0.9526279843860264</v>
       </c>
       <c r="Q13">
-        <v>1.55321947923508E-07</v>
+        <v>1.553219543105093E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13">
-        <v>179.9999998446693</v>
+        <v>179.9999998446692</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1850,16 +1850,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.952627942908977</v>
+        <v>0.9526279429089768</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279866547764</v>
+        <v>0.9526279866547757</v>
       </c>
       <c r="Q14">
-        <v>2.235489126848419E-07</v>
+        <v>2.235489070759129E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9526279413964764</v>
+        <v>0.9526279413964766</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.952627988167276</v>
+        <v>0.9526279881672756</v>
       </c>
       <c r="Q15">
-        <v>2.690335060546892E-07</v>
+        <v>2.690335085854043E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.952627945933977</v>
+        <v>0.9526279459339771</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297761</v>
       </c>
       <c r="Q16">
-        <v>1.325796687464597E-07</v>
+        <v>1.325796407375846E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2027,16 +2027,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9526279459339771</v>
+        <v>0.952627945933977</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279836297769</v>
+        <v>0.9526279836297761</v>
       </c>
       <c r="Q17">
-        <v>1.325796367581429E-07</v>
+        <v>1.32579643145238E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279391277265</v>
+        <v>0.9526279391277263</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9526279904360263</v>
+        <v>0.9526279904360255</v>
       </c>
       <c r="Q18">
-        <v>3.372604975891365E-07</v>
+        <v>3.372604732802053E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2145,22 +2145,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279361027263</v>
+        <v>0.952627936102726</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279934610261</v>
+        <v>0.9526279934610253</v>
       </c>
       <c r="Q19">
-        <v>4.282297663277533E-07</v>
+        <v>4.282297284140448E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>179.9999995717614</v>
+        <v>179.9999995717615</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279338339764</v>
+        <v>0.9526279338339756</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.9526279957297761</v>
+        <v>0.952627995729775</v>
       </c>
       <c r="Q20">
-        <v>4.964567210526534E-07</v>
+        <v>4.964566750042865E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -2263,16 +2263,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279330777262</v>
+        <v>0.9526279330777255</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279964860261</v>
+        <v>0.9526279964860253</v>
       </c>
       <c r="Q21">
-        <v>5.191990348804238E-07</v>
+        <v>5.19198988831963E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>1.102503199127358</v>
       </c>
       <c r="O5">
-        <v>1.073936237813093</v>
+        <v>1.073936237813092</v>
       </c>
       <c r="P5">
         <v>1.084507397868702</v>
@@ -2875,7 +2875,7 @@
         <v>1.084507398177443</v>
       </c>
       <c r="Q10">
-        <v>29.14059842764509</v>
+        <v>29.14059842764508</v>
       </c>
       <c r="R10">
         <v>-91.10214733810575</v>
@@ -2928,7 +2928,7 @@
         <v>1.102503198710999</v>
       </c>
       <c r="O11">
-        <v>1.073936237620757</v>
+        <v>1.073936237620756</v>
       </c>
       <c r="P11">
         <v>1.084507398196739</v>
@@ -3164,7 +3164,7 @@
         <v>1.1025031992988</v>
       </c>
       <c r="O15">
-        <v>1.07393623789229</v>
+        <v>1.073936237892289</v>
       </c>
       <c r="P15">
         <v>1.084507397733627</v>
@@ -3229,7 +3229,7 @@
         <v>1.084507397617849</v>
       </c>
       <c r="Q16">
-        <v>29.14059841599395</v>
+        <v>29.14059841599396</v>
       </c>
       <c r="R16">
         <v>-91.10214741562633</v>
@@ -3634,13 +3634,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -3767,7 +3767,7 @@
         <v>1.102503199005441</v>
       </c>
       <c r="O4">
-        <v>1.073936237740625</v>
+        <v>1.073936237740624</v>
       </c>
       <c r="P4">
         <v>1.084507397956761</v>
@@ -4062,7 +4062,7 @@
         <v>1.102503198760524</v>
       </c>
       <c r="O9">
-        <v>1.073936237627485</v>
+        <v>1.073936237627486</v>
       </c>
       <c r="P9">
         <v>1.084507398149724</v>
@@ -4366,7 +4366,7 @@
         <v>29.14059841750815</v>
       </c>
       <c r="R14">
-        <v>-91.10214740282214</v>
+        <v>-91.10214740282215</v>
       </c>
       <c r="S14">
         <v>150.327962620929</v>
@@ -4540,7 +4540,7 @@
         <v>1.084507397628723</v>
       </c>
       <c r="Q17">
-        <v>29.14059841590111</v>
+        <v>29.1405984159011</v>
       </c>
       <c r="R17">
         <v>-91.10214741351464</v>
@@ -4661,7 +4661,7 @@
         <v>29.14059842112402</v>
       </c>
       <c r="R19">
-        <v>-91.10214737876403</v>
+        <v>-91.10214737876404</v>
       </c>
       <c r="S19">
         <v>150.3279626289879</v>
@@ -4907,7 +4907,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.720087823885482E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -4957,16 +4957,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.659295457277695E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -5016,16 +5016,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015294</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162327649729932E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -5075,16 +5075,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515296</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.415718032624693E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -5140,10 +5140,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563350743369E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5199,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804599</v>
+        <v>0.8660254372804601</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889637810287E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -5258,10 +5258,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679599</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554889779016E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -5311,16 +5311,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429594</v>
+        <v>0.8660254393429598</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885411033412E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179595</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.44021593475698E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -5429,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054595</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881186985573E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5488,22 +5488,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.175887209524687E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -5553,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679647</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.175887332346194E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -5606,22 +5606,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304641</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485844750587051E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054634</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.359150064505908E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -5730,10 +5730,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739234664936441E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -5783,16 +5783,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890282</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739234745350555E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -5842,16 +5842,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015286</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679635</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.669107401483784E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -5901,16 +5901,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.866025377851529</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179628</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415717492456928E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -5960,16 +5960,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890293</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.866025431780462</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.725675127000415E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -6019,16 +6019,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015294</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.16232755632668E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0.8660254037849894</v>
       </c>
       <c r="Q2">
-        <v>1.720171577574745E-10</v>
+        <v>1.720087823885482E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6209,16 +6209,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8660253881640282</v>
+        <v>0.8660253881640281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254194054645</v>
+        <v>0.8660254194054651</v>
       </c>
       <c r="Q3">
-        <v>8.659294056814325E-08</v>
+        <v>8.659295457277695E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -6268,16 +6268,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015294</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q4">
-        <v>9.162326707947185E-07</v>
+        <v>9.162327649729932E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -6327,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660253778515297</v>
+        <v>0.8660253778515296</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254297179618</v>
+        <v>0.8660254297179623</v>
       </c>
       <c r="Q5">
-        <v>7.415717892597736E-07</v>
+        <v>7.415718032624693E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254338429606</v>
+        <v>0.866025433842961</v>
       </c>
       <c r="Q6">
-        <v>1.003563332500695E-06</v>
+        <v>1.003563350743369E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -6451,10 +6451,10 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8660254372804599</v>
+        <v>0.8660254372804601</v>
       </c>
       <c r="Q7">
-        <v>1.221889623808974E-06</v>
+        <v>1.221889637810287E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -6510,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8660254379679594</v>
+        <v>0.8660254379679599</v>
       </c>
       <c r="Q8">
-        <v>1.26555487153703E-06</v>
+        <v>1.265554889779016E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -6563,16 +6563,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8660253682265315</v>
+        <v>0.8660253682265314</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8660254393429594</v>
+        <v>0.8660254393429598</v>
       </c>
       <c r="Q9">
-        <v>1.352885405513922E-06</v>
+        <v>1.352885411033412E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -6628,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8660254407179591</v>
+        <v>0.8660254407179595</v>
       </c>
       <c r="Q10">
-        <v>1.440215924996956E-06</v>
+        <v>1.44021593475698E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -6681,16 +6681,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8660253661640319</v>
+        <v>0.8660253661640318</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8660254414054589</v>
+        <v>0.8660254414054595</v>
       </c>
       <c r="Q11">
-        <v>1.483881181466356E-06</v>
+        <v>1.483881186985573E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -6740,22 +6740,22 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8660253861015282</v>
+        <v>0.8660253861015281</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8660254214679641</v>
+        <v>0.8660254214679646</v>
       </c>
       <c r="Q12">
-        <v>2.175887060947266E-07</v>
+        <v>2.175887209524687E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12">
-        <v>179.9999997824026</v>
+        <v>179.9999997824027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6805,10 +6805,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8660254214679644</v>
+        <v>0.8660254214679647</v>
       </c>
       <c r="Q13">
-        <v>2.175887107487782E-07</v>
+        <v>2.175887332346194E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -6858,22 +6858,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8660253840390286</v>
+        <v>0.8660253840390284</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.8660254235304636</v>
+        <v>0.8660254235304641</v>
       </c>
       <c r="Q14">
-        <v>3.485844307509115E-07</v>
+        <v>3.485844750587051E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999996514069</v>
+        <v>179.999999651407</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6923,10 +6923,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.8660254249054631</v>
+        <v>0.8660254249054634</v>
       </c>
       <c r="Q15">
-        <v>4.359149882062559E-07</v>
+        <v>4.359150064505908E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -6982,10 +6982,10 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8660254207804642</v>
+        <v>0.8660254207804646</v>
       </c>
       <c r="Q16">
-        <v>1.739234516358356E-07</v>
+        <v>1.739234664936441E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -7035,16 +7035,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8660253867890282</v>
+        <v>0.8660253867890281</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8660254207804644</v>
+        <v>0.866025420780465</v>
       </c>
       <c r="Q17">
-        <v>1.739234562898875E-07</v>
+        <v>1.739234745350555E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -7094,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8660253806015291</v>
+        <v>0.8660253806015286</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8660254269679627</v>
+        <v>0.8660254269679635</v>
       </c>
       <c r="Q18">
-        <v>5.669106720675813E-07</v>
+        <v>5.669107401483784E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -7153,16 +7153,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8660253778515298</v>
+        <v>0.866025377851529</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.866025429717962</v>
+        <v>0.8660254297179628</v>
       </c>
       <c r="Q19">
-        <v>7.415716706057021E-07</v>
+        <v>7.415717492456928E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -7212,16 +7212,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.86602537578903</v>
+        <v>0.8660253757890293</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8660254317804614</v>
+        <v>0.866025431780462</v>
       </c>
       <c r="Q20">
-        <v>8.725674193805463E-07</v>
+        <v>8.725675127000415E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -7271,16 +7271,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8660253751015303</v>
+        <v>0.8660253751015294</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8660254324679614</v>
+        <v>0.866025432467962</v>
       </c>
       <c r="Q21">
-        <v>9.162326665539788E-07</v>
+        <v>9.16232755632668E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -7523,7 +7523,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -7535,7 +7535,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -7641,7 +7641,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -7706,10 +7706,10 @@
         <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -7827,7 +7827,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -7883,7 +7883,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909722</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -7936,16 +7936,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363819</v>
+        <v>0.9731342573363818</v>
       </c>
       <c r="P11">
         <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016713</v>
+        <v>29.02648255016712</v>
       </c>
       <c r="R11">
-        <v>-91.24839353657991</v>
+        <v>-91.2483935365799</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -7995,13 +7995,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
         <v>-91.24839364820043</v>
@@ -8054,13 +8054,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q13">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R13">
         <v>-91.24839364820043</v>
@@ -8178,7 +8178,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -8231,7 +8231,7 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
@@ -8296,10 +8296,10 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -8349,7 +8349,7 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273385</v>
+        <v>0.9731342572273386</v>
       </c>
       <c r="P18">
         <v>0.9840663101380841</v>
@@ -8408,7 +8408,7 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481086</v>
+        <v>0.9731342572481088</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
@@ -8467,7 +8467,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -8526,7 +8526,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -8538,7 +8538,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -8775,7 +8775,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O4">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P4">
         <v>0.9840663103780253</v>
@@ -8787,7 +8787,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S4">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -8893,7 +8893,7 @@
         <v>1.002551065038351</v>
       </c>
       <c r="O6">
-        <v>0.9731342572792639</v>
+        <v>0.9731342572792638</v>
       </c>
       <c r="P6">
         <v>0.9840663104380105</v>
@@ -8958,10 +8958,10 @@
         <v>0.9840663105879738</v>
       </c>
       <c r="Q7">
-        <v>29.0264825437477</v>
+        <v>29.02648254374771</v>
       </c>
       <c r="R7">
-        <v>-91.24839355967381</v>
+        <v>-91.2483935596738</v>
       </c>
       <c r="S7">
         <v>150.3745453063503</v>
@@ -9079,7 +9079,7 @@
         <v>29.02648254695741</v>
       </c>
       <c r="R9">
-        <v>-91.24839354812687</v>
+        <v>-91.24839354812686</v>
       </c>
       <c r="S9">
         <v>150.3745453086648</v>
@@ -9135,7 +9135,7 @@
         <v>0.9840663107379369</v>
       </c>
       <c r="Q10">
-        <v>29.02648254909721</v>
+        <v>29.02648254909722</v>
       </c>
       <c r="R10">
         <v>-91.24839354042889</v>
@@ -9188,16 +9188,16 @@
         <v>1.002551064742236</v>
       </c>
       <c r="O11">
-        <v>0.9731342573363819</v>
+        <v>0.9731342573363818</v>
       </c>
       <c r="P11">
         <v>0.9840663107679296</v>
       </c>
       <c r="Q11">
-        <v>29.02648255016713</v>
+        <v>29.02648255016712</v>
       </c>
       <c r="R11">
-        <v>-91.24839353657991</v>
+        <v>-91.2483935365799</v>
       </c>
       <c r="S11">
         <v>150.3745453109793</v>
@@ -9247,13 +9247,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O12">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P12">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q12">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R12">
         <v>-91.24839364820043</v>
@@ -9306,13 +9306,13 @@
         <v>1.002551065522903</v>
       </c>
       <c r="O13">
-        <v>0.9731342571857984</v>
+        <v>0.9731342571857983</v>
       </c>
       <c r="P13">
         <v>0.9840663098981429</v>
       </c>
       <c r="Q13">
-        <v>29.02648251913994</v>
+        <v>29.02648251913993</v>
       </c>
       <c r="R13">
         <v>-91.24839364820043</v>
@@ -9430,7 +9430,7 @@
         <v>0.9840663100481062</v>
       </c>
       <c r="Q15">
-        <v>29.02648252448946</v>
+        <v>29.02648252448945</v>
       </c>
       <c r="R15">
         <v>-91.24839362895553</v>
@@ -9483,7 +9483,7 @@
         <v>1.002551065549822</v>
       </c>
       <c r="O16">
-        <v>0.9731342571806055</v>
+        <v>0.9731342571806058</v>
       </c>
       <c r="P16">
         <v>0.9840663098681504</v>
@@ -9548,10 +9548,10 @@
         <v>0.9840663098681504</v>
       </c>
       <c r="Q17">
-        <v>29.02648251807003</v>
+        <v>29.02648251807004</v>
       </c>
       <c r="R17">
-        <v>-91.24839365204943</v>
+        <v>-91.24839365204942</v>
       </c>
       <c r="S17">
         <v>150.3745452878344</v>
@@ -9601,7 +9601,7 @@
         <v>1.002551065307546</v>
       </c>
       <c r="O18">
-        <v>0.9731342572273385</v>
+        <v>0.9731342572273386</v>
       </c>
       <c r="P18">
         <v>0.9840663101380841</v>
@@ -9660,7 +9660,7 @@
         <v>1.002551065199868</v>
       </c>
       <c r="O19">
-        <v>0.9731342572481086</v>
+        <v>0.9731342572481088</v>
       </c>
       <c r="P19">
         <v>0.9840663102580548</v>
@@ -9719,7 +9719,7 @@
         <v>1.002551065119109</v>
       </c>
       <c r="O20">
-        <v>0.9731342572636862</v>
+        <v>0.9731342572636863</v>
       </c>
       <c r="P20">
         <v>0.9840663103480326</v>
@@ -9778,7 +9778,7 @@
         <v>1.00255106509219</v>
       </c>
       <c r="O21">
-        <v>0.9731342572688788</v>
+        <v>0.9731342572688789</v>
       </c>
       <c r="P21">
         <v>0.9840663103780253</v>
@@ -9790,7 +9790,7 @@
         <v>-91.24839358661669</v>
       </c>
       <c r="S21">
-        <v>150.3745453009499</v>
+        <v>150.3745453009498</v>
       </c>
     </row>
   </sheetData>
@@ -9918,7 +9918,7 @@
         <v>0.635085309858575</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061765</v>
+        <v>60.00000000061767</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -9971,19 +9971,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853273112943</v>
+        <v>0.6350853273112935</v>
       </c>
       <c r="O3">
         <v>1.100000023884844</v>
       </c>
       <c r="P3">
-        <v>0.6350852941114501</v>
+        <v>0.63508529411145</v>
       </c>
       <c r="Q3">
-        <v>60.00000073762056</v>
+        <v>60.00000073762063</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S3">
         <v>120.000000991656</v>
@@ -10033,22 +10033,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279438</v>
       </c>
       <c r="O4">
         <v>1.100000023884844</v>
       </c>
       <c r="P4">
-        <v>0.6350852838906036</v>
+        <v>0.6350852838906017</v>
       </c>
       <c r="Q4">
-        <v>60.00000083789045</v>
+        <v>60.00000083789075</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -10095,22 +10095,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853419297015</v>
+        <v>0.6350853419297007</v>
       </c>
       <c r="O5">
         <v>1.100000023884845</v>
       </c>
       <c r="P5">
-        <v>0.63508528604236</v>
+        <v>0.6350852860423599</v>
       </c>
       <c r="Q5">
-        <v>60.0000008167812</v>
+        <v>60.00000081678128</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
-        <v>120.0000020942208</v>
+        <v>120.0000020942207</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -10157,22 +10157,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853477770644</v>
+        <v>0.6350853477770636</v>
       </c>
       <c r="O6">
         <v>1.100000023884845</v>
       </c>
       <c r="P6">
-        <v>0.6350852828147241</v>
+        <v>0.6350852828147238</v>
       </c>
       <c r="Q6">
-        <v>60.00000084844548</v>
+        <v>60.00000084844556</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S6">
-        <v>120.0000025352467</v>
+        <v>120.0000025352466</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10219,19 +10219,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.635085352649867</v>
+        <v>0.6350853526498662</v>
       </c>
       <c r="O7">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P7">
-        <v>0.6350852801250272</v>
+        <v>0.6350852801250271</v>
       </c>
       <c r="Q7">
-        <v>60.00000087483237</v>
+        <v>60.00000087483244</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S7">
         <v>120.0000029027683</v>
@@ -10281,19 +10281,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350853536244274</v>
+        <v>0.6350853536244268</v>
       </c>
       <c r="O8">
-        <v>1.100000023884846</v>
+        <v>1.100000023884845</v>
       </c>
       <c r="P8">
-        <v>0.6350852795870878</v>
+        <v>0.6350852795870875</v>
       </c>
       <c r="Q8">
-        <v>60.00000088010975</v>
+        <v>60.00000088010983</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999568</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S8">
         <v>120.0000029762726</v>
@@ -10343,19 +10343,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853555735483</v>
+        <v>0.6350853555735475</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852785112092</v>
+        <v>0.635085278511209</v>
       </c>
       <c r="Q9">
-        <v>60.00000089066452</v>
+        <v>60.0000008906646</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S9">
         <v>120.0000031232812</v>
@@ -10405,22 +10405,22 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853575226691</v>
+        <v>0.6350853575226683</v>
       </c>
       <c r="O10">
         <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852774353304</v>
+        <v>0.6350852774353302</v>
       </c>
       <c r="Q10">
-        <v>60.00000090121931</v>
+        <v>60.00000090121939</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999562</v>
       </c>
       <c r="S10">
-        <v>120.0000032702899</v>
+        <v>120.0000032702898</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -10467,22 +10467,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853584972296</v>
+        <v>0.6350853584972288</v>
       </c>
       <c r="O11">
         <v>1.100000023884846</v>
       </c>
       <c r="P11">
-        <v>0.6350852768973908</v>
+        <v>0.6350852768973906</v>
       </c>
       <c r="Q11">
-        <v>60.00000090649672</v>
+        <v>60.00000090649679</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999561</v>
       </c>
       <c r="S11">
-        <v>120.0000033437942</v>
+        <v>120.0000033437941</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -10529,19 +10529,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350853302349755</v>
+        <v>0.6350853302349747</v>
       </c>
       <c r="O12">
         <v>1.100000023884844</v>
       </c>
       <c r="P12">
-        <v>0.6350852924976312</v>
+        <v>0.6350852924976311</v>
       </c>
       <c r="Q12">
-        <v>60.0000007534528</v>
+        <v>60.00000075345285</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S12">
         <v>120.0000012121689</v>
@@ -10591,19 +10591,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350853302349754</v>
+        <v>0.6350853302349747</v>
       </c>
       <c r="O13">
         <v>1.100000023884844</v>
       </c>
       <c r="P13">
-        <v>0.6350852924976316</v>
+        <v>0.6350852924976315</v>
       </c>
       <c r="Q13">
-        <v>60.00000075345277</v>
+        <v>60.00000075345285</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S13">
         <v>120.0000012121689</v>
@@ -10653,22 +10653,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853331586576</v>
+        <v>0.6350853331586567</v>
       </c>
       <c r="O14">
         <v>1.100000023884844</v>
       </c>
       <c r="P14">
-        <v>0.6350852908838145</v>
+        <v>0.6350852908838138</v>
       </c>
       <c r="Q14">
-        <v>60.00000076928473</v>
+        <v>60.00000076928487</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S14">
-        <v>120.000001432682</v>
+        <v>120.0000014326819</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.635085335107778</v>
+        <v>0.6350853351077774</v>
       </c>
       <c r="O15">
         <v>1.100000023884844</v>
@@ -10724,10 +10724,10 @@
         <v>0.6350852898079354</v>
       </c>
       <c r="Q15">
-        <v>60.00000077983957</v>
+        <v>60.00000077983964</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S15">
         <v>120.0000015796905</v>
@@ -10777,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853292604149</v>
+        <v>0.6350853292604143</v>
       </c>
       <c r="O16">
         <v>1.100000023884844</v>
@@ -10786,10 +10786,10 @@
         <v>0.635085293035571</v>
       </c>
       <c r="Q16">
-        <v>60.00000074817538</v>
+        <v>60.00000074817543</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S16">
         <v>120.0000011386646</v>
@@ -10839,19 +10839,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853292604151</v>
+        <v>0.6350853292604143</v>
       </c>
       <c r="O17">
         <v>1.100000023884844</v>
       </c>
       <c r="P17">
-        <v>0.6350852930355713</v>
+        <v>0.6350852930355712</v>
       </c>
       <c r="Q17">
-        <v>60.00000074817535</v>
+        <v>60.00000074817543</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999572</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S17">
         <v>120.0000011386646</v>
@@ -10901,22 +10901,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853380314603</v>
+        <v>0.6350853380314594</v>
       </c>
       <c r="O18">
         <v>1.100000023884844</v>
       </c>
       <c r="P18">
-        <v>0.6350852881941182</v>
+        <v>0.6350852881941169</v>
       </c>
       <c r="Q18">
-        <v>60.00000079567153</v>
+        <v>60.00000079567175</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S18">
-        <v>120.0000018002036</v>
+        <v>120.0000018002035</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -10963,22 +10963,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853419297027</v>
+        <v>0.6350853419297015</v>
       </c>
       <c r="O19">
         <v>1.100000023884844</v>
       </c>
       <c r="P19">
-        <v>0.635085286042361</v>
+        <v>0.6350852860423594</v>
       </c>
       <c r="Q19">
-        <v>60.00000081678098</v>
+        <v>60.00000081678125</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>120.0000020942209</v>
+        <v>120.0000020942208</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -11025,22 +11025,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853448533842</v>
+        <v>0.6350853448533833</v>
       </c>
       <c r="O20">
         <v>1.100000023884844</v>
       </c>
       <c r="P20">
-        <v>0.6350852844285431</v>
+        <v>0.6350852844285413</v>
       </c>
       <c r="Q20">
-        <v>60.00000083261308</v>
+        <v>60.00000083261336</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S20">
-        <v>120.0000023147339</v>
+        <v>120.0000023147338</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -11087,22 +11087,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853458279447</v>
+        <v>0.6350853458279437</v>
       </c>
       <c r="O21">
         <v>1.100000023884844</v>
       </c>
       <c r="P21">
-        <v>0.6350852838906036</v>
+        <v>0.6350852838906018</v>
       </c>
       <c r="Q21">
-        <v>60.00000083789045</v>
+        <v>60.00000083789074</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
-        <v>120.0000023882382</v>
+        <v>120.0000023882381</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -11188,7 +11188,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>57.73503019391566</v>
+        <v>57.73503019391567</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
         <v>0.6350853099664725</v>
@@ -11230,10 +11230,10 @@
         <v>1.100000023884844</v>
       </c>
       <c r="P2">
-        <v>0.6350853098585755</v>
+        <v>0.6350853098585756</v>
       </c>
       <c r="Q2">
-        <v>60.00000000061768</v>
+        <v>60.00000000061767</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -11286,22 +11286,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350853281372386</v>
+        <v>0.6350853281372384</v>
       </c>
       <c r="O3">
         <v>1.100000023884845</v>
       </c>
       <c r="P3">
-        <v>0.6350852933615861</v>
+        <v>0.6350852933615858</v>
       </c>
       <c r="Q3">
-        <v>60.00000077271604</v>
+        <v>60.0000007727161</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999574</v>
       </c>
       <c r="S3">
-        <v>120.0000010386398</v>
+        <v>120.0000010386397</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -11348,22 +11348,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350853466538894</v>
+        <v>0.6350853466538883</v>
       </c>
       <c r="O4">
         <v>1.100000023884846</v>
       </c>
       <c r="P4">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407384</v>
       </c>
       <c r="Q4">
-        <v>60.00000087298594</v>
+        <v>60.00000087298621</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S4">
-        <v>120.000002435222</v>
+        <v>120.0000024352219</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -11410,19 +11410,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350853427556459</v>
+        <v>0.6350853427556458</v>
       </c>
       <c r="O5">
         <v>1.100000023884846</v>
       </c>
       <c r="P5">
-        <v>0.635085285292496</v>
+        <v>0.6350852852924959</v>
       </c>
       <c r="Q5">
-        <v>60.00000085187671</v>
+        <v>60.00000085187674</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999571</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S5">
         <v>120.0000021412045</v>
@@ -11472,16 +11472,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350853486030089</v>
+        <v>0.6350853486030086</v>
       </c>
       <c r="O6">
         <v>1.100000023884846</v>
       </c>
       <c r="P6">
-        <v>0.6350852820648599</v>
+        <v>0.6350852820648596</v>
       </c>
       <c r="Q6">
-        <v>60.00000088354098</v>
+        <v>60.00000088354102</v>
       </c>
       <c r="R6">
         <v>-89.99999999999569</v>
@@ -11534,19 +11534,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350853534758114</v>
+        <v>0.6350853534758112</v>
       </c>
       <c r="O7">
         <v>1.100000023884846</v>
       </c>
       <c r="P7">
-        <v>0.6350852793751631</v>
+        <v>0.635085279375163</v>
       </c>
       <c r="Q7">
-        <v>60.00000090992787</v>
+        <v>60.00000090992791</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999567</v>
       </c>
       <c r="S7">
         <v>120.000002949752</v>
@@ -11596,19 +11596,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.635085354450372</v>
+        <v>0.6350853544503716</v>
       </c>
       <c r="O8">
         <v>1.100000023884846</v>
       </c>
       <c r="P8">
-        <v>0.6350852788372235</v>
+        <v>0.6350852788372234</v>
       </c>
       <c r="Q8">
-        <v>60.00000091520525</v>
+        <v>60.00000091520529</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999569</v>
+        <v>-89.99999999999568</v>
       </c>
       <c r="S8">
         <v>120.0000030232563</v>
@@ -11658,19 +11658,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350853563994929</v>
+        <v>0.6350853563994925</v>
       </c>
       <c r="O9">
         <v>1.100000023884846</v>
       </c>
       <c r="P9">
-        <v>0.6350852777613452</v>
+        <v>0.6350852777613449</v>
       </c>
       <c r="Q9">
-        <v>60.00000092576001</v>
+        <v>60.00000092576005</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999567</v>
+        <v>-89.99999999999565</v>
       </c>
       <c r="S9">
         <v>120.000003170265</v>
@@ -11720,19 +11720,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350853583486138</v>
+        <v>0.6350853583486133</v>
       </c>
       <c r="O10">
-        <v>1.100000023884847</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P10">
-        <v>0.6350852766854664</v>
+        <v>0.635085276685466</v>
       </c>
       <c r="Q10">
-        <v>60.0000009363148</v>
+        <v>60.00000093631485</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S10">
         <v>120.0000033172736</v>
@@ -11782,22 +11782,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350853593231741</v>
+        <v>0.6350853593231738</v>
       </c>
       <c r="O11">
         <v>1.100000023884847</v>
       </c>
       <c r="P11">
-        <v>0.6350852761475269</v>
+        <v>0.6350852761475266</v>
       </c>
       <c r="Q11">
-        <v>60.0000009415922</v>
+        <v>60.00000094159225</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999565</v>
+        <v>-89.99999999999564</v>
       </c>
       <c r="S11">
-        <v>120.000003390778</v>
+        <v>120.0000033907779</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.63508533106092</v>
+        <v>0.6350853310609197</v>
       </c>
       <c r="O12">
         <v>1.100000023884845</v>
@@ -11853,13 +11853,13 @@
         <v>0.6350852917477673</v>
       </c>
       <c r="Q12">
-        <v>60.00000078854828</v>
+        <v>60.00000078854831</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S12">
-        <v>120.0000012591527</v>
+        <v>120.0000012591526</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -11906,19 +11906,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.63508533106092</v>
+        <v>0.6350853310609197</v>
       </c>
       <c r="O13">
         <v>1.100000023884845</v>
       </c>
       <c r="P13">
-        <v>0.6350852917477675</v>
+        <v>0.6350852917477673</v>
       </c>
       <c r="Q13">
-        <v>60.00000078854826</v>
+        <v>60.00000078854831</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999571</v>
       </c>
       <c r="S13">
         <v>120.0000012591527</v>
@@ -11968,19 +11968,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350853339846022</v>
+        <v>0.6350853339846015</v>
       </c>
       <c r="O14">
         <v>1.100000023884845</v>
       </c>
       <c r="P14">
-        <v>0.6350852901339504</v>
+        <v>0.63508529013395</v>
       </c>
       <c r="Q14">
-        <v>60.00000080438021</v>
+        <v>60.00000080438031</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S14">
         <v>120.0000014796657</v>
@@ -12030,19 +12030,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350853359337226</v>
+        <v>0.6350853359337223</v>
       </c>
       <c r="O15">
         <v>1.100000023884845</v>
       </c>
       <c r="P15">
-        <v>0.6350852890580714</v>
+        <v>0.6350852890580712</v>
       </c>
       <c r="Q15">
-        <v>60.00000081493506</v>
+        <v>60.00000081493511</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S15">
         <v>120.0000016266743</v>
@@ -12092,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350853300863596</v>
+        <v>0.6350853300863593</v>
       </c>
       <c r="O16">
         <v>1.100000023884845</v>
@@ -12101,10 +12101,10 @@
         <v>0.635085292285707</v>
       </c>
       <c r="Q16">
-        <v>60.00000078327087</v>
+        <v>60.00000078327089</v>
       </c>
       <c r="R16">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S16">
         <v>120.0000011856484</v>
@@ -12154,19 +12154,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350853300863596</v>
+        <v>0.6350853300863593</v>
       </c>
       <c r="O17">
         <v>1.100000023884845</v>
       </c>
       <c r="P17">
-        <v>0.6350852922857071</v>
+        <v>0.635085292285707</v>
       </c>
       <c r="Q17">
-        <v>60.00000078327086</v>
+        <v>60.00000078327089</v>
       </c>
       <c r="R17">
-        <v>-89.99999999999574</v>
+        <v>-89.99999999999572</v>
       </c>
       <c r="S17">
         <v>120.0000011856484</v>
@@ -12216,22 +12216,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350853388574049</v>
+        <v>0.6350853388574041</v>
       </c>
       <c r="O18">
         <v>1.100000023884845</v>
       </c>
       <c r="P18">
-        <v>0.6350852874442541</v>
+        <v>0.6350852874442534</v>
       </c>
       <c r="Q18">
-        <v>60.00000083076702</v>
+        <v>60.00000083076718</v>
       </c>
       <c r="R18">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S18">
-        <v>120.0000018471874</v>
+        <v>120.0000018471873</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -12278,22 +12278,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350853427556472</v>
+        <v>0.6350853427556462</v>
       </c>
       <c r="O19">
-        <v>1.100000023884845</v>
+        <v>1.100000023884846</v>
       </c>
       <c r="P19">
-        <v>0.6350852852924969</v>
+        <v>0.6350852852924961</v>
       </c>
       <c r="Q19">
-        <v>60.00000085187648</v>
+        <v>60.00000085187669</v>
       </c>
       <c r="R19">
-        <v>-89.99999999999575</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S19">
-        <v>120.0000021412047</v>
+        <v>120.0000021412046</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -12340,22 +12340,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350853456793288</v>
+        <v>0.6350853456793277</v>
       </c>
       <c r="O20">
         <v>1.100000023884846</v>
       </c>
       <c r="P20">
-        <v>0.6350852836786789</v>
+        <v>0.635085283678678</v>
       </c>
       <c r="Q20">
-        <v>60.00000086770856</v>
+        <v>60.00000086770883</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S20">
-        <v>120.0000023617177</v>
+        <v>120.0000023617175</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -12402,22 +12402,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350853466538894</v>
+        <v>0.6350853466538882</v>
       </c>
       <c r="O21">
         <v>1.100000023884846</v>
       </c>
       <c r="P21">
-        <v>0.6350852831407394</v>
+        <v>0.6350852831407384</v>
       </c>
       <c r="Q21">
-        <v>60.00000087298594</v>
+        <v>60.0000008729862</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999577</v>
+        <v>-89.99999999999569</v>
       </c>
       <c r="S21">
-        <v>120.000002435222</v>
+        <v>120.0000024352219</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -13233,7 +13233,7 @@
         <v>29.92212961775842</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246566729963</v>
@@ -13540,7 +13540,7 @@
         <v>1.096496877724249</v>
       </c>
       <c r="Q18">
-        <v>29.92212962376642</v>
+        <v>29.92212962376641</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -14347,7 +14347,7 @@
         <v>0.01094540889646504</v>
       </c>
       <c r="M2">
-        <v>0.1094540870674484</v>
+        <v>0.1094540870674483</v>
       </c>
       <c r="N2">
         <v>1.090352556933547</v>
@@ -14486,7 +14486,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S4">
         <v>149.5246566825418</v>
@@ -14731,7 +14731,7 @@
         <v>1.09649687754894</v>
       </c>
       <c r="Q8">
-        <v>29.92212963651796</v>
+        <v>29.92212963651797</v>
       </c>
       <c r="R8">
         <v>-89.99999999999635</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.090352557053719</v>
+        <v>1.090352557053718</v>
       </c>
       <c r="O10">
         <v>1.100000023842583</v>
@@ -15038,13 +15038,13 @@
         <v>1.100000023842583</v>
       </c>
       <c r="P13">
-        <v>1.096496877792915</v>
+        <v>1.096496877792916</v>
       </c>
       <c r="Q13">
         <v>29.92212961849399</v>
       </c>
       <c r="R13">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S13">
         <v>149.5246566733128</v>
@@ -15106,7 +15106,7 @@
         <v>29.92212962074699</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S14">
         <v>149.5246566750432</v>
@@ -15351,7 +15351,7 @@
         <v>1.096496877711591</v>
       </c>
       <c r="Q18">
-        <v>29.92212962450199</v>
+        <v>29.92212962450198</v>
       </c>
       <c r="R18">
         <v>-89.99999999999635</v>
@@ -15475,10 +15475,10 @@
         <v>1.096496877640431</v>
       </c>
       <c r="Q20">
-        <v>29.92212962975898</v>
+        <v>29.92212962975897</v>
       </c>
       <c r="R20">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S20">
         <v>149.524656681965</v>
@@ -15540,7 +15540,7 @@
         <v>29.92212963050997</v>
       </c>
       <c r="R21">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S21">
         <v>149.5246566825418</v>
@@ -15629,7 +15629,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -15647,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -15665,7 +15665,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -15674,7 +15674,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -15730,19 +15730,19 @@
         <v>0.5773502855857102</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610994</v>
+        <v>60.00000076610993</v>
       </c>
       <c r="R3">
         <v>-89.99999999999585</v>
       </c>
       <c r="S3">
-        <v>120.0000010262631</v>
+        <v>120.0000010262632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -15789,22 +15789,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007628</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -15851,19 +15851,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -15913,19 +15913,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252842</v>
+        <v>0.5773503080252843</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673669</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786206</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -15975,19 +15975,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680399</v>
+        <v>0.57735031336804</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.00000008732685</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S7">
         <v>120.0000037533701</v>
@@ -16040,16 +16040,16 @@
         <v>0.577350314436591</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.577350246028675</v>
       </c>
       <c r="Q8">
         <v>60.00000006121983</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -16099,19 +16099,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736933</v>
+        <v>0.5773503165736934</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157778</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900576</v>
+        <v>60.00000000900575</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -16161,19 +16161,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.5773503187107958</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.5773502448028806</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679166</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -16223,19 +16223,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793468</v>
+        <v>0.5773503197793469</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.577350244496432</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068464</v>
+        <v>59.99999993068462</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S11">
         <v>120.0000043827025</v>
@@ -16288,19 +16288,19 @@
         <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834421</v>
       </c>
       <c r="Q12">
         <v>60.00000068778882</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -16347,13 +16347,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913639</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q13">
         <v>60.00000068778881</v>
@@ -16409,19 +16409,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P14">
         <v>0.577350252464096</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946774</v>
+        <v>60.0000006094677</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -16474,16 +16474,16 @@
         <v>0.5773502941341194</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.577350251851199</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725359</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -16533,13 +16533,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P16">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898908</v>
       </c>
       <c r="Q16">
         <v>60.00000071389586</v>
@@ -16598,13 +16598,13 @@
         <v>0.5773502877228127</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R17">
         <v>-89.99999999999586</v>
@@ -16657,22 +16657,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397727</v>
+        <v>0.5773502973397729</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318523</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893256</v>
+        <v>60.00000047893253</v>
       </c>
       <c r="R18">
         <v>-89.99999999999588</v>
       </c>
       <c r="S18">
-        <v>120.0000021800391</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -16719,22 +16719,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139772</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060575</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450442</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
         <v>-89.99999999999589</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -16781,22 +16781,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196306</v>
+        <v>0.5773503048196309</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867114</v>
+        <v>0.5773502487867116</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618332</v>
+        <v>60.00000029618326</v>
       </c>
       <c r="R20">
         <v>-89.99999999999589</v>
       </c>
       <c r="S20">
-        <v>120.0000029142602</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -16843,22 +16843,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881817</v>
+        <v>0.577350305888182</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007628</v>
+        <v>60.00000027007622</v>
       </c>
       <c r="R21">
         <v>-89.99999999999589</v>
       </c>
       <c r="S21">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -16944,7 +16944,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.18802315383259</v>
+        <v>46.1880231538326</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -16953,7 +16953,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>266.6666760120191</v>
+        <v>266.6666760120192</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -16962,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -16980,7 +16980,7 @@
         <v>0.1243796443940108</v>
       </c>
       <c r="N2">
-        <v>0.5773502692110766</v>
+        <v>0.5773502692110767</v>
       </c>
       <c r="O2">
         <v>0.9999999999962953</v>
@@ -16989,7 +16989,7 @@
         <v>0.577350269169092</v>
       </c>
       <c r="Q2">
-        <v>60.00000000075389</v>
+        <v>60.00000000075387</v>
       </c>
       <c r="R2">
         <v>-89.99999999999635</v>
@@ -17045,19 +17045,19 @@
         <v>0.5773502855857102</v>
       </c>
       <c r="O3">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P3">
-        <v>0.5773502543027885</v>
+        <v>0.5773502543027884</v>
       </c>
       <c r="Q3">
-        <v>60.00000076610994</v>
+        <v>60.00000076610993</v>
       </c>
       <c r="R3">
         <v>-89.99999999999585</v>
       </c>
       <c r="S3">
-        <v>120.0000010262631</v>
+        <v>120.0000010262632</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -17104,22 +17104,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773503058881817</v>
+        <v>0.5773503058881821</v>
       </c>
       <c r="O4">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P4">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q4">
-        <v>60.00000027007628</v>
+        <v>60.00000027007621</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S4">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -17166,19 +17166,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5773503016139774</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O5">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962957</v>
       </c>
       <c r="P5">
-        <v>0.5773502497060587</v>
+        <v>0.5773502497060585</v>
       </c>
       <c r="Q5">
         <v>60.00000037450432</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999588</v>
+        <v>-89.99999999999589</v>
       </c>
       <c r="S5">
         <v>120.0000025995941</v>
@@ -17228,19 +17228,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5773503080252842</v>
+        <v>0.5773503080252843</v>
       </c>
       <c r="O6">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P6">
-        <v>0.577350247867367</v>
+        <v>0.5773502478673669</v>
       </c>
       <c r="Q6">
-        <v>60.00000021786207</v>
+        <v>60.00000021786206</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999589</v>
+        <v>-89.99999999999591</v>
       </c>
       <c r="S6">
         <v>120.0000032289265</v>
@@ -17290,19 +17290,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5773503133680399</v>
+        <v>0.57735031336804</v>
       </c>
       <c r="O7">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P7">
-        <v>0.5773502463351239</v>
+        <v>0.5773502463351237</v>
       </c>
       <c r="Q7">
-        <v>60.00000008732688</v>
+        <v>60.00000008732685</v>
       </c>
       <c r="R7">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S7">
         <v>120.0000037533701</v>
@@ -17355,16 +17355,16 @@
         <v>0.577350314436591</v>
       </c>
       <c r="O8">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P8">
-        <v>0.5773502460286752</v>
+        <v>0.577350246028675</v>
       </c>
       <c r="Q8">
         <v>60.00000006121983</v>
       </c>
       <c r="R8">
-        <v>-89.99999999999591</v>
+        <v>-89.99999999999592</v>
       </c>
       <c r="S8">
         <v>120.0000038582589</v>
@@ -17414,19 +17414,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5773503165736933</v>
+        <v>0.5773503165736934</v>
       </c>
       <c r="O9">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P9">
-        <v>0.577350245415778</v>
+        <v>0.5773502454157778</v>
       </c>
       <c r="Q9">
-        <v>60.00000000900576</v>
+        <v>60.00000000900575</v>
       </c>
       <c r="R9">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S9">
         <v>120.0000040680363</v>
@@ -17476,19 +17476,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773503187107956</v>
+        <v>0.5773503187107958</v>
       </c>
       <c r="O10">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P10">
-        <v>0.5773502448028807</v>
+        <v>0.5773502448028806</v>
       </c>
       <c r="Q10">
-        <v>59.99999995679168</v>
+        <v>59.99999995679166</v>
       </c>
       <c r="R10">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S10">
         <v>120.0000042778138</v>
@@ -17538,19 +17538,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773503197793468</v>
+        <v>0.5773503197793469</v>
       </c>
       <c r="O11">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P11">
-        <v>0.5773502444964321</v>
+        <v>0.577350244496432</v>
       </c>
       <c r="Q11">
-        <v>59.99999993068464</v>
+        <v>59.99999993068462</v>
       </c>
       <c r="R11">
-        <v>-89.99999999999592</v>
+        <v>-89.99999999999594</v>
       </c>
       <c r="S11">
         <v>120.0000043827025</v>
@@ -17603,19 +17603,19 @@
         <v>0.5773502887913637</v>
       </c>
       <c r="O12">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P12">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834421</v>
       </c>
       <c r="Q12">
         <v>60.00000068778882</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999585</v>
+        <v>-89.99999999999586</v>
       </c>
       <c r="S12">
-        <v>120.0000013409293</v>
+        <v>120.0000013409294</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -17662,13 +17662,13 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5773502887913639</v>
+        <v>0.577350288791364</v>
       </c>
       <c r="O13">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P13">
-        <v>0.5773502533834424</v>
+        <v>0.5773502533834423</v>
       </c>
       <c r="Q13">
         <v>60.00000068778881</v>
@@ -17724,19 +17724,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502919970169</v>
+        <v>0.5773502919970172</v>
       </c>
       <c r="O14">
-        <v>0.9999999999962959</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P14">
         <v>0.577350252464096</v>
       </c>
       <c r="Q14">
-        <v>60.00000060946774</v>
+        <v>60.0000006094677</v>
       </c>
       <c r="R14">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S14">
         <v>120.0000016555955</v>
@@ -17789,16 +17789,16 @@
         <v>0.5773502941341194</v>
       </c>
       <c r="O15">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P15">
-        <v>0.5773502518511993</v>
+        <v>0.577350251851199</v>
       </c>
       <c r="Q15">
-        <v>60.00000055725361</v>
+        <v>60.00000055725359</v>
       </c>
       <c r="R15">
-        <v>-89.99999999999586</v>
+        <v>-89.99999999999588</v>
       </c>
       <c r="S15">
         <v>120.000001865373</v>
@@ -17848,13 +17848,13 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5773502877228125</v>
+        <v>0.5773502877228126</v>
       </c>
       <c r="O16">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P16">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898908</v>
       </c>
       <c r="Q16">
         <v>60.00000071389586</v>
@@ -17913,13 +17913,13 @@
         <v>0.5773502877228127</v>
       </c>
       <c r="O17">
-        <v>0.9999999999962961</v>
+        <v>0.9999999999962959</v>
       </c>
       <c r="P17">
-        <v>0.577350253689891</v>
+        <v>0.5773502536898909</v>
       </c>
       <c r="Q17">
-        <v>60.00000071389586</v>
+        <v>60.00000071389584</v>
       </c>
       <c r="R17">
         <v>-89.99999999999586</v>
@@ -17972,22 +17972,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502973397727</v>
+        <v>0.5773502973397729</v>
       </c>
       <c r="O18">
-        <v>0.9999999999962957</v>
+        <v>0.9999999999962956</v>
       </c>
       <c r="P18">
-        <v>0.5773502509318524</v>
+        <v>0.5773502509318523</v>
       </c>
       <c r="Q18">
-        <v>60.00000047893256</v>
+        <v>60.00000047893253</v>
       </c>
       <c r="R18">
         <v>-89.99999999999588</v>
       </c>
       <c r="S18">
-        <v>120.0000021800391</v>
+        <v>120.0000021800392</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -18034,22 +18034,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773503016139772</v>
+        <v>0.5773503016139775</v>
       </c>
       <c r="O19">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P19">
-        <v>0.5773502497060576</v>
+        <v>0.5773502497060575</v>
       </c>
       <c r="Q19">
-        <v>60.00000037450442</v>
+        <v>60.00000037450437</v>
       </c>
       <c r="R19">
         <v>-89.99999999999589</v>
       </c>
       <c r="S19">
-        <v>120.000002599594</v>
+        <v>120.0000025995941</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -18096,22 +18096,22 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773503048196306</v>
+        <v>0.5773503048196309</v>
       </c>
       <c r="O20">
-        <v>0.9999999999962956</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P20">
-        <v>0.5773502487867114</v>
+        <v>0.5773502487867116</v>
       </c>
       <c r="Q20">
-        <v>60.00000029618332</v>
+        <v>60.00000029618326</v>
       </c>
       <c r="R20">
         <v>-89.99999999999589</v>
       </c>
       <c r="S20">
-        <v>120.0000029142602</v>
+        <v>120.0000029142603</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -18158,22 +18158,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773503058881817</v>
+        <v>0.577350305888182</v>
       </c>
       <c r="O21">
-        <v>0.9999999999962955</v>
+        <v>0.9999999999962952</v>
       </c>
       <c r="P21">
-        <v>0.5773502484802627</v>
+        <v>0.577350248480263</v>
       </c>
       <c r="Q21">
-        <v>60.00000027007628</v>
+        <v>60.00000027007622</v>
       </c>
       <c r="R21">
         <v>-89.99999999999589</v>
       </c>
       <c r="S21">
-        <v>120.0000030191489</v>
+        <v>120.000003019149</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -18277,7 +18277,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -18481,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -18549,7 +18549,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -18605,7 +18605,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -18735,7 +18735,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731365</v>
+        <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
@@ -18927,7 +18927,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.4607573040611</v>
@@ -19048,7 +19048,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -19169,7 +19169,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -19231,7 +19231,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -19349,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -19417,10 +19417,10 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01243796462778155</v>
+        <v>0.01243796462778156</v>
       </c>
       <c r="I2">
         <v>0.1243796444003413</v>
@@ -19796,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O5">
         <v>0.9999999999994829</v>
@@ -19864,7 +19864,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P6">
-        <v>0.9963798867389013</v>
+        <v>0.9963798867389014</v>
       </c>
       <c r="Q6">
         <v>29.91230409615193</v>
@@ -19920,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9900480150169573</v>
+        <v>0.9900480150169571</v>
       </c>
       <c r="O7">
         <v>0.9999999999994829</v>
@@ -20050,7 +20050,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P9">
-        <v>0.9963798866731365</v>
+        <v>0.9963798866731364</v>
       </c>
       <c r="Q9">
         <v>29.91230410342188</v>
@@ -20242,7 +20242,7 @@
         <v>29.91230407979453</v>
       </c>
       <c r="R12">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S12">
         <v>149.4607573040611</v>
@@ -20363,7 +20363,7 @@
         <v>0.9963798868622106</v>
       </c>
       <c r="Q14">
-        <v>29.91230408252077</v>
+        <v>29.91230408252076</v>
       </c>
       <c r="R14">
         <v>-89.99999999999636</v>
@@ -20484,7 +20484,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P16">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q16">
         <v>29.91230407888578</v>
@@ -20546,7 +20546,7 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P17">
-        <v>0.9963798868950929</v>
+        <v>0.996379886895093</v>
       </c>
       <c r="Q17">
         <v>29.91230407888578</v>
@@ -20664,7 +20664,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9900480148956212</v>
+        <v>0.9900480148956214</v>
       </c>
       <c r="O19">
         <v>0.9999999999994829</v>
@@ -20732,10 +20732,10 @@
         <v>0.9999999999994829</v>
       </c>
       <c r="P20">
-        <v>0.9963798867635631</v>
+        <v>0.9963798867635634</v>
       </c>
       <c r="Q20">
-        <v>29.9123040934257</v>
+        <v>29.91230409342569</v>
       </c>
       <c r="R20">
         <v>-89.99999999999636</v>
@@ -20931,10 +20931,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6350853098608015</v>
+        <v>0.6350853098608014</v>
       </c>
       <c r="Q2">
-        <v>4.228458211276003E-09</v>
+        <v>4.228458031165992E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -20987,16 +20987,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.635085294097668</v>
+        <v>0.6350852940976677</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6350853272056293</v>
+        <v>0.635085327205629</v>
       </c>
       <c r="Q3">
-        <v>9.908897703630627E-07</v>
+        <v>9.908897158913476E-07</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -21049,16 +21049,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852838768186</v>
+        <v>0.6350852838768166</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.63508534572228</v>
+        <v>0.635085345722279</v>
       </c>
       <c r="Q4">
-        <v>2.387471879046079E-06</v>
+        <v>2.387471891717357E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -21111,16 +21111,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6350852860285742</v>
+        <v>0.6350852860285738</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6350853418240362</v>
+        <v>0.6350853418240361</v>
       </c>
       <c r="Q5">
-        <v>2.093454436649392E-06</v>
+        <v>2.093454387955819E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -21173,7 +21173,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852828009366</v>
+        <v>0.6350852828009363</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -21182,7 +21182,7 @@
         <v>0.635085347671399</v>
       </c>
       <c r="Q6">
-        <v>2.534480320106092E-06</v>
+        <v>2.534480271410676E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -21235,7 +21235,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852801112388</v>
+        <v>0.6350852801112385</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -21244,7 +21244,7 @@
         <v>0.6350853525442014</v>
       </c>
       <c r="Q7">
-        <v>2.902001903347671E-06</v>
+        <v>2.902001860433577E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -21297,7 +21297,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852795732993</v>
+        <v>0.635085279573299</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -21306,7 +21306,7 @@
         <v>0.6350853535187619</v>
       </c>
       <c r="Q8">
-        <v>2.975506220685522E-06</v>
+        <v>2.975506171988436E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -21359,7 +21359,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852784974198</v>
+        <v>0.6350852784974194</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -21368,7 +21368,7 @@
         <v>0.6350853554678829</v>
       </c>
       <c r="Q9">
-        <v>3.122514844006423E-06</v>
+        <v>3.122514795308666E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -21421,16 +21421,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852774215405</v>
+        <v>0.6350852774215401</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.635085357417004</v>
+        <v>0.6350853574170038</v>
       </c>
       <c r="Q10">
-        <v>3.269523467164331E-06</v>
+        <v>3.269523418466073E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -21483,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852768836007</v>
+        <v>0.6350852768836004</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -21492,7 +21492,7 @@
         <v>0.6350853583915644</v>
       </c>
       <c r="Q11">
-        <v>3.343027784731438E-06</v>
+        <v>3.343027730250186E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -21545,16 +21545,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852924838488</v>
+        <v>0.6350852924838483</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853301293107</v>
+        <v>0.6350853301293106</v>
       </c>
       <c r="Q12">
-        <v>1.211402720229386E-06</v>
+        <v>1.211402625802249E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -21607,16 +21607,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852924838485</v>
+        <v>0.6350852924838483</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853301293107</v>
+        <v>0.6350853301293106</v>
       </c>
       <c r="Q13">
-        <v>1.211402669640932E-06</v>
+        <v>1.21140263251703E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -21669,16 +21669,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852908700311</v>
+        <v>0.6350852908700303</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853330529926</v>
+        <v>0.6350853330529923</v>
       </c>
       <c r="Q14">
-        <v>1.431915668850397E-06</v>
+        <v>1.431915636950375E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -21731,16 +21731,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852897941514</v>
+        <v>0.635085289794151</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853350021131</v>
+        <v>0.6350853350021129</v>
       </c>
       <c r="Q15">
-        <v>1.578924259829376E-06</v>
+        <v>1.578924211137977E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -21793,16 +21793,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852930217886</v>
+        <v>0.6350852930217881</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853291547504</v>
+        <v>0.63508532915475</v>
       </c>
       <c r="Q16">
-        <v>1.137898405226263E-06</v>
+        <v>1.137898316582119E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -21855,16 +21855,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852930217883</v>
+        <v>0.6350852930217881</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853291547502</v>
+        <v>0.63508532915475</v>
       </c>
       <c r="Q17">
-        <v>1.137898360420636E-06</v>
+        <v>1.137898311731247E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -21917,22 +21917,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6350852881803341</v>
+        <v>0.6350852881803325</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853379257955</v>
+        <v>0.6350853379257948</v>
       </c>
       <c r="Q18">
-        <v>1.799437288116788E-06</v>
+        <v>1.799437267837532E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18">
-        <v>-179.9999991997819</v>
+        <v>-179.9999991997818</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -21979,22 +21979,22 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852860285764</v>
+        <v>0.6350852860285747</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853418240379</v>
+        <v>0.6350853418240371</v>
       </c>
       <c r="Q19">
-        <v>2.093454593194453E-06</v>
+        <v>2.093454579992417E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19">
-        <v>-179.9999991786724</v>
+        <v>-179.9999991786723</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -22041,16 +22041,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6350852844147582</v>
+        <v>0.6350852844147563</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853447477195</v>
+        <v>0.6350853447477187</v>
       </c>
       <c r="Q20">
-        <v>2.313967568198361E-06</v>
+        <v>2.313967582314246E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -22103,16 +22103,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852838768186</v>
+        <v>0.6350852838768167</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.63508534572228</v>
+        <v>0.635085345722279</v>
       </c>
       <c r="Q21">
-        <v>2.387471873263252E-06</v>
+        <v>2.387471893161799E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -22207,19 +22207,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>57.73503018874288</v>
+        <v>57.7350301887429</v>
       </c>
       <c r="D2">
-        <v>57.73503019620923</v>
+        <v>57.73503019620924</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>333.3333522114187</v>
+        <v>333.3333522114188</v>
       </c>
       <c r="G2">
-        <v>333.3333522545257</v>
+        <v>333.3333522545258</v>
       </c>
       <c r="H2">
         <v>0.01094540887219822</v>
@@ -22228,19 +22228,19 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
       </c>
       <c r="N2">
-        <v>0.6350853098448019</v>
+        <v>0.6350853098448017</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -22249,7 +22249,7 @@
         <v>0.6350853098608013</v>
       </c>
       <c r="Q2">
-        <v>4.228442587551278E-09</v>
+        <v>4.228442504659001E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -22258,7 +22258,7 @@
         <v>-179.9999999948365</v>
       </c>
       <c r="T2">
-        <v>57.7350301918306</v>
+        <v>57.73503019183062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -22302,16 +22302,16 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6350852933478038</v>
+        <v>0.6350852933478035</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.635085328031573</v>
+        <v>0.6350853280315722</v>
       </c>
       <c r="Q3">
-        <v>1.037873697159788E-06</v>
+        <v>1.037873689673215E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -22364,16 +22364,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269524</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6350853465482238</v>
+        <v>0.635085346548222</v>
       </c>
       <c r="Q4">
-        <v>2.434455819119506E-06</v>
+        <v>2.434455764850112E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -22426,16 +22426,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.63508528527871</v>
+        <v>0.6350852852787099</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.63508534264998</v>
+        <v>0.6350853426499793</v>
       </c>
       <c r="Q5">
-        <v>2.1404383876735E-06</v>
+        <v>2.140438380183124E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -22488,16 +22488,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6350852820510724</v>
+        <v>0.6350852820510723</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6350853484973429</v>
+        <v>0.6350853484973421</v>
       </c>
       <c r="Q6">
-        <v>2.581464277540806E-06</v>
+        <v>2.581464270048938E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6350852793613746</v>
+        <v>0.6350852793613743</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6350853533701454</v>
+        <v>0.6350853533701448</v>
       </c>
       <c r="Q7">
-        <v>2.948985843957055E-06</v>
+        <v>2.948985848029621E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -22612,22 +22612,22 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6350852788234349</v>
+        <v>0.6350852788234348</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6350853543447059</v>
+        <v>0.6350853543447053</v>
       </c>
       <c r="Q8">
-        <v>3.02249015561671E-06</v>
+        <v>3.022490165471971E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-179.9999990802484</v>
+        <v>-179.9999990802485</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -22674,16 +22674,16 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6350852777475559</v>
+        <v>0.6350852777475556</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.635085356293827</v>
+        <v>0.6350853562938261</v>
       </c>
       <c r="Q9">
-        <v>3.169498779146869E-06</v>
+        <v>3.169498789001586E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -22736,16 +22736,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6350852766716765</v>
+        <v>0.6350852766716761</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6350853582429478</v>
+        <v>0.6350853582429471</v>
       </c>
       <c r="Q10">
-        <v>3.316507402514037E-06</v>
+        <v>3.31650741236835E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -22798,16 +22798,16 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6350852761337368</v>
+        <v>0.6350852761337363</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6350853592175082</v>
+        <v>0.6350853592175075</v>
       </c>
       <c r="Q11">
-        <v>3.390011720185774E-06</v>
+        <v>3.390011724257129E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -22860,16 +22860,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6350852917339844</v>
+        <v>0.6350852917339841</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6350853309552548</v>
+        <v>0.6350853309552538</v>
       </c>
       <c r="Q12">
-        <v>1.258386640375912E-06</v>
+        <v>1.258386613137541E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6350852917339843</v>
+        <v>0.6350852917339842</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6350853309552545</v>
+        <v>0.635085330955254</v>
       </c>
       <c r="Q13">
-        <v>1.258386621995585E-06</v>
+        <v>1.258386614508477E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6350852901201671</v>
+        <v>0.6350852901201663</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6350853338789365</v>
+        <v>0.6350853338789354</v>
       </c>
       <c r="Q14">
-        <v>1.478899607563633E-06</v>
+        <v>1.478899599806266E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -23046,16 +23046,16 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6350852890442871</v>
+        <v>0.6350852890442868</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6350853358280568</v>
+        <v>0.6350853358280562</v>
       </c>
       <c r="Q15">
-        <v>1.625908198555419E-06</v>
+        <v>1.625908185283982E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -23108,16 +23108,16 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6350852922719245</v>
+        <v>0.6350852922719239</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806933</v>
       </c>
       <c r="Q16">
-        <v>1.184882331050985E-06</v>
+        <v>1.184882303812746E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -23170,16 +23170,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6350852922719243</v>
+        <v>0.635085292271924</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6350853299806942</v>
+        <v>0.6350853299806933</v>
       </c>
       <c r="Q17">
-        <v>1.184882318453485E-06</v>
+        <v>1.184882310966509E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -23232,16 +23232,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.63508528743047</v>
+        <v>0.6350852874304687</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.6350853387517393</v>
+        <v>0.6350853387517382</v>
       </c>
       <c r="Q18">
-        <v>1.846421215787521E-06</v>
+        <v>1.846421202245897E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -23294,16 +23294,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350852852787124</v>
+        <v>0.6350852852787108</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6350853426499816</v>
+        <v>0.6350853426499804</v>
       </c>
       <c r="Q19">
-        <v>2.140438521283705E-06</v>
+        <v>2.140438478587083E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -23356,16 +23356,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.635085283664894</v>
+        <v>0.6350852836648921</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6350853455736634</v>
+        <v>0.6350853455736617</v>
       </c>
       <c r="Q20">
-        <v>2.360951508167158E-06</v>
+        <v>2.360951450412077E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6350852831269547</v>
+        <v>0.6350852831269524</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6350853465482238</v>
+        <v>0.6350853465482221</v>
       </c>
       <c r="Q21">
-        <v>2.434455819119506E-06</v>
+        <v>2.434455761364295E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q5">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R5">
         <v>-90.55768083460144</v>
@@ -23992,7 +23992,7 @@
         <v>1.09649687753996</v>
       </c>
       <c r="O9">
-        <v>1.086862152117769</v>
+        <v>1.08686215211777</v>
       </c>
       <c r="P9">
         <v>1.090352557044242</v>
@@ -24116,7 +24116,7 @@
         <v>1.096496877509463</v>
       </c>
       <c r="O11">
-        <v>1.086862152100595</v>
+        <v>1.086862152100594</v>
       </c>
       <c r="P11">
         <v>1.090352557057971</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.096496877804267</v>
+        <v>1.096496877804266</v>
       </c>
       <c r="O12">
         <v>1.08686215226662</v>
@@ -24184,7 +24184,7 @@
         <v>1.090352556925258</v>
       </c>
       <c r="Q12">
-        <v>29.52465667300135</v>
+        <v>29.52465667300136</v>
       </c>
       <c r="R12">
         <v>-90.55768085064017</v>
@@ -24370,7 +24370,7 @@
         <v>1.090352556948139</v>
       </c>
       <c r="Q15">
-        <v>29.52465667588543</v>
+        <v>29.52465667588542</v>
       </c>
       <c r="R15">
         <v>-90.55768084395737</v>
@@ -24556,7 +24556,7 @@
         <v>1.090352556961868</v>
       </c>
       <c r="Q18">
-        <v>29.52465667761588</v>
+        <v>29.52465667761587</v>
       </c>
       <c r="R18">
         <v>-90.55768083994768</v>
@@ -24618,7 +24618,7 @@
         <v>1.090352556980174</v>
       </c>
       <c r="Q19">
-        <v>29.52465667992314</v>
+        <v>29.52465667992313</v>
       </c>
       <c r="R19">
         <v>-90.55768083460144</v>
@@ -24677,10 +24677,10 @@
         <v>1.086862152180745</v>
       </c>
       <c r="P20">
-        <v>1.090352556993903</v>
+        <v>1.090352556993902</v>
       </c>
       <c r="Q20">
-        <v>29.52465668165357</v>
+        <v>29.52465668165358</v>
       </c>
       <c r="R20">
         <v>-90.55768083059175</v>
@@ -24858,13 +24858,13 @@
         <v>0.1094540870723598</v>
       </c>
       <c r="J2">
-        <v>0.01094540889714039</v>
+        <v>0.01094540889714035</v>
       </c>
       <c r="K2">
-        <v>0.1094540870686275</v>
+        <v>0.1094540870686274</v>
       </c>
       <c r="L2">
-        <v>0.01094540889646415</v>
+        <v>0.01094540889646414</v>
       </c>
       <c r="M2">
         <v>0.1094540870674505</v>
@@ -25127,7 +25127,7 @@
         <v>1.090352557006645</v>
       </c>
       <c r="Q6">
-        <v>29.52465668370054</v>
+        <v>29.52465668370055</v>
       </c>
       <c r="R6">
         <v>-90.55768082552622</v>
@@ -25251,7 +25251,7 @@
         <v>1.090352557034103</v>
       </c>
       <c r="Q8">
-        <v>29.52465668716144</v>
+        <v>29.52465668716143</v>
       </c>
       <c r="R8">
         <v>-90.55768081750685</v>
@@ -25623,7 +25623,7 @@
         <v>1.090352556938001</v>
       </c>
       <c r="Q14">
-        <v>29.52465667504833</v>
+        <v>29.52465667504832</v>
       </c>
       <c r="R14">
         <v>-90.55768084557464</v>
@@ -25871,7 +25871,7 @@
         <v>1.090352556960882</v>
       </c>
       <c r="Q18">
-        <v>29.5246566779324</v>
+        <v>29.52465667793239</v>
       </c>
       <c r="R18">
         <v>-90.55768083889184</v>
@@ -26155,7 +26155,7 @@
         <v>46.18802315050826</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -26164,7 +26164,7 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -26194,13 +26194,13 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534686068650021E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
       <c r="T2">
         <v>46.18802315331506</v>
@@ -26253,10 +26253,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594386</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.029154386050376E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -26309,16 +26309,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.577350248516828</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619085</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040199909783E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -26377,16 +26377,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485340785669E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222534</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -26439,16 +26439,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.5773503079990102</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.231817724275838E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788956</v>
+        <v>-179.9999997788955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -26501,16 +26501,16 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417655</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261378340998E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094307</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -26563,10 +26563,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103165</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150084282192E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -26625,16 +26625,16 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474186</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.070927580351928E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877518</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -26681,16 +26681,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845209</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705057793333E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -26743,22 +26743,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.5773503197530717</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593791952042E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339125</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -26811,10 +26811,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820577975666E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -26873,10 +26873,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820575329467E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006604</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707451</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486742370464E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -26991,22 +26991,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.5773502518877635</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.5773502941078468</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264219269674E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395042</v>
+        <v>-179.9999994395041</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -27059,16 +27059,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.23893185139661E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -27115,22 +27115,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.5773502537264552</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.23893185511152E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -27177,16 +27177,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684171</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973135004</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930391239174E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -27239,16 +27239,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426223</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.60248530269755E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -27301,16 +27301,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232766</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933564</v>
+        <v>0.5773503047933575</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151480416757E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -27363,16 +27363,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.577350248516828</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619086</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040198744021E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -27966,7 +27966,7 @@
         <v>46.18802315050826</v>
       </c>
       <c r="D2">
-        <v>46.18802315729565</v>
+        <v>46.18802315729566</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -27975,7 +27975,7 @@
         <v>266.6666759928261</v>
       </c>
       <c r="G2">
-        <v>266.6666760320131</v>
+        <v>266.6666760320132</v>
       </c>
       <c r="H2">
         <v>0.01243796462778101</v>
@@ -28005,13 +28005,13 @@
         <v>0.5773502691848033</v>
       </c>
       <c r="Q2">
-        <v>4.534685910504859E-09</v>
+        <v>4.534686068650021E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999960048</v>
+        <v>-179.9999999960047</v>
       </c>
       <c r="T2">
         <v>46.18802315331506</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.577350285559438</v>
+        <v>0.5773502855594386</v>
       </c>
       <c r="Q3">
-        <v>1.02915435841597E-06</v>
+        <v>1.029154386050376E-06</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -28120,16 +28120,16 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773502485168285</v>
+        <v>0.577350248516828</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619085</v>
       </c>
       <c r="Q4">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040199909783E-06</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -28188,16 +28188,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5773503015877037</v>
+        <v>0.5773503015877042</v>
       </c>
       <c r="Q5">
-        <v>2.602485319515956E-06</v>
+        <v>2.602485340785669E-06</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999996222534</v>
+        <v>-179.9999996222533</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -28250,16 +28250,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.5773503079990098</v>
+        <v>0.5773503079990102</v>
       </c>
       <c r="Q6">
-        <v>3.231817703007531E-06</v>
+        <v>3.231817724275838E-06</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-179.9999997788956</v>
+        <v>-179.9999997788955</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -28312,16 +28312,16 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.5773503133417649</v>
+        <v>0.5773503133417655</v>
       </c>
       <c r="Q7">
-        <v>3.75626135707384E-06</v>
+        <v>3.756261378340998E-06</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>-179.9999999094307</v>
+        <v>-179.9999999094306</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -28374,10 +28374,10 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.577350314410316</v>
+        <v>0.5773503144103165</v>
       </c>
       <c r="Q8">
-        <v>3.861150082098486E-06</v>
+        <v>3.861150084282192E-06</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -28436,16 +28436,16 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5773503165474181</v>
+        <v>0.5773503165474186</v>
       </c>
       <c r="Q9">
-        <v>4.070927559085405E-06</v>
+        <v>4.070927580351928E-06</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-179.9999999877518</v>
+        <v>-179.9999999877517</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -28492,16 +28492,16 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5773502448394461</v>
+        <v>0.577350244839446</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5773503186845204</v>
+        <v>0.5773503186845209</v>
       </c>
       <c r="Q10">
-        <v>4.2807050428883E-06</v>
+        <v>4.280705057793333E-06</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -28554,22 +28554,22 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5773502445329975</v>
+        <v>0.5773502445329974</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5773503197530714</v>
+        <v>0.5773503197530717</v>
       </c>
       <c r="Q11">
-        <v>4.385593764324911E-06</v>
+        <v>4.385593791952042E-06</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>179.9999999339125</v>
+        <v>179.9999999339126</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -28622,10 +28622,10 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q12">
-        <v>1.343820578198749E-06</v>
+        <v>1.343820577975666E-06</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -28684,10 +28684,10 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5773502887650913</v>
+        <v>0.5773502887650919</v>
       </c>
       <c r="Q13">
-        <v>1.343820560417782E-06</v>
+        <v>1.343820575329467E-06</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -28740,22 +28740,22 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5773502525006606</v>
+        <v>0.5773502525006604</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5773502919707443</v>
+        <v>0.5773502919707451</v>
       </c>
       <c r="Q14">
-        <v>1.658486674613518E-06</v>
+        <v>1.658486742370464E-06</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-179.9999993872901</v>
+        <v>-179.99999938729</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -28802,22 +28802,22 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5773502518877636</v>
+        <v>0.5773502518877635</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5773502941078462</v>
+        <v>0.5773502941078468</v>
       </c>
       <c r="Q15">
-        <v>1.868264197998298E-06</v>
+        <v>1.868264219269674E-06</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15">
-        <v>-179.9999994395042</v>
+        <v>-179.9999994395041</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -28870,16 +28870,16 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5773502876965403</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q16">
-        <v>1.238931845258461E-06</v>
+        <v>1.23893185139661E-06</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -28926,22 +28926,22 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5773502537264553</v>
+        <v>0.5773502537264552</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5773502876965405</v>
+        <v>0.5773502876965408</v>
       </c>
       <c r="Q17">
-        <v>1.238931833838603E-06</v>
+        <v>1.23893185511152E-06</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17">
-        <v>-179.999999282862</v>
+        <v>-179.9999992828619</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -28988,16 +28988,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5773502509684174</v>
+        <v>0.5773502509684171</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5773502973134994</v>
+        <v>0.5773502973135004</v>
       </c>
       <c r="Q18">
-        <v>2.182930265478634E-06</v>
+        <v>2.182930391239174E-06</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -29050,16 +29050,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5773502497426228</v>
+        <v>0.5773502497426223</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5773503015877033</v>
+        <v>0.5773503015877045</v>
       </c>
       <c r="Q19">
-        <v>2.602485142681096E-06</v>
+        <v>2.60248530269755E-06</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -29112,16 +29112,16 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5773502488232771</v>
+        <v>0.5773502488232766</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5773503047933564</v>
+        <v>0.5773503047933575</v>
       </c>
       <c r="Q20">
-        <v>2.917151307413861E-06</v>
+        <v>2.917151480416757E-06</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -29174,16 +29174,16 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5773502485168285</v>
+        <v>0.577350248516828</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5773503058619074</v>
+        <v>0.5773503058619086</v>
       </c>
       <c r="Q21">
-        <v>3.022040019380138E-06</v>
+        <v>3.022040198744021E-06</v>
       </c>
       <c r="R21">
         <v>0</v>
@@ -29379,7 +29379,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -29444,7 +29444,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -29500,7 +29500,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -29621,7 +29621,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -29630,7 +29630,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -29683,7 +29683,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904158</v>
+        <v>0.9963798866904159</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -29692,7 +29692,7 @@
         <v>0.9900480150288176</v>
       </c>
       <c r="Q8">
-        <v>29.46075732799785</v>
+        <v>29.46075732799784</v>
       </c>
       <c r="R8">
         <v>-90.63269603492033</v>
@@ -29754,7 +29754,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -29819,7 +29819,7 @@
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722235</v>
+        <v>-90.63269602722237</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -29872,10 +29872,10 @@
         <v>0.9963798866493127</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
@@ -29934,7 +29934,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
         <v>0.990048014764085</v>
@@ -29996,10 +29996,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
-        <v>0.9900480147640851</v>
+        <v>0.990048014764085</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -30008,7 +30008,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -30055,16 +30055,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971766</v>
+        <v>0.9900480147971764</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -30182,7 +30182,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -30303,7 +30303,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -30315,7 +30315,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -30374,7 +30374,7 @@
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -30427,13 +30427,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480149295429</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
@@ -30498,7 +30498,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -30694,7 +30694,7 @@
         <v>0.9864427565220329</v>
       </c>
       <c r="P3">
-        <v>0.9900480147309935</v>
+        <v>0.9900480147309934</v>
       </c>
       <c r="Q3">
         <v>29.4607573010759</v>
@@ -30759,7 +30759,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q4">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R4">
         <v>-90.63269605031626</v>
@@ -30815,7 +30815,7 @@
         <v>0.9963798867890632</v>
       </c>
       <c r="O5">
-        <v>0.9864427565615096</v>
+        <v>0.9864427565615095</v>
       </c>
       <c r="P5">
         <v>0.9900480148964513</v>
@@ -30936,7 +30936,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9963798866986364</v>
+        <v>0.9963798866986365</v>
       </c>
       <c r="O7">
         <v>0.986442756590459</v>
@@ -30945,7 +30945,7 @@
         <v>0.9900480150177869</v>
       </c>
       <c r="Q7">
-        <v>29.46075732700074</v>
+        <v>29.46075732700073</v>
       </c>
       <c r="R7">
         <v>-90.63269603684482</v>
@@ -30998,7 +30998,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9963798866904158</v>
+        <v>0.9963798866904159</v>
       </c>
       <c r="O8">
         <v>0.9864427565930908</v>
@@ -31007,7 +31007,7 @@
         <v>0.9900480150288176</v>
       </c>
       <c r="Q8">
-        <v>29.46075732799785</v>
+        <v>29.46075732799784</v>
       </c>
       <c r="R8">
         <v>-90.63269603492033</v>
@@ -31069,7 +31069,7 @@
         <v>0.9900480150508787</v>
       </c>
       <c r="Q9">
-        <v>29.46075732999207</v>
+        <v>29.46075732999206</v>
       </c>
       <c r="R9">
         <v>-90.63269603107135</v>
@@ -31134,7 +31134,7 @@
         <v>29.46075733198628</v>
       </c>
       <c r="R10">
-        <v>-90.63269602722235</v>
+        <v>-90.63269602722237</v>
       </c>
       <c r="S10">
         <v>149.9123041052339</v>
@@ -31187,10 +31187,10 @@
         <v>0.9963798866493127</v>
       </c>
       <c r="O11">
-        <v>0.9864427566062497</v>
+        <v>0.9864427566062498</v>
       </c>
       <c r="P11">
-        <v>0.9900480150839701</v>
+        <v>0.9900480150839702</v>
       </c>
       <c r="Q11">
         <v>29.46075733298339</v>
@@ -31249,7 +31249,7 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O12">
-        <v>0.9864427565299282</v>
+        <v>0.9864427565299283</v>
       </c>
       <c r="P12">
         <v>0.990048014764085</v>
@@ -31311,10 +31311,10 @@
         <v>0.9963798868877107</v>
       </c>
       <c r="O13">
-        <v>0.9864427565299283</v>
+        <v>0.9864427565299282</v>
       </c>
       <c r="P13">
-        <v>0.9900480147640851</v>
+        <v>0.990048014764085</v>
       </c>
       <c r="Q13">
         <v>29.46075730406723</v>
@@ -31323,7 +31323,7 @@
         <v>-90.63269608110814</v>
       </c>
       <c r="S13">
-        <v>149.9123040797891</v>
+        <v>149.912304079789</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -31370,16 +31370,16 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.9963798868630487</v>
+        <v>0.9963798868630488</v>
       </c>
       <c r="O14">
         <v>0.9864427565378235</v>
       </c>
       <c r="P14">
-        <v>0.9900480147971766</v>
+        <v>0.9900480147971764</v>
       </c>
       <c r="Q14">
-        <v>29.46075730705855</v>
+        <v>29.46075730705856</v>
       </c>
       <c r="R14">
         <v>-90.63269607533465</v>
@@ -31497,7 +31497,7 @@
         <v>0.9963798868959313</v>
       </c>
       <c r="O16">
-        <v>0.9864427565272963</v>
+        <v>0.9864427565272964</v>
       </c>
       <c r="P16">
         <v>0.9900480147530545</v>
@@ -31618,7 +31618,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9963798868219458</v>
+        <v>0.9963798868219457</v>
       </c>
       <c r="O18">
         <v>0.9864427565509826</v>
@@ -31630,7 +31630,7 @@
         <v>29.4607573120441</v>
       </c>
       <c r="R18">
-        <v>-90.63269606571221</v>
+        <v>-90.6326960657122</v>
       </c>
       <c r="S18">
         <v>149.912304087059</v>
@@ -31689,7 +31689,7 @@
         <v>0.9900480148964513</v>
       </c>
       <c r="Q19">
-        <v>29.46075731603253</v>
+        <v>29.46075731603254</v>
       </c>
       <c r="R19">
         <v>-90.63269605801423</v>
@@ -31742,13 +31742,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9963798867644014</v>
+        <v>0.9963798867644015</v>
       </c>
       <c r="O20">
         <v>0.9864427565694048</v>
       </c>
       <c r="P20">
-        <v>0.9900480149295429</v>
+        <v>0.9900480149295428</v>
       </c>
       <c r="Q20">
         <v>29.46075731902386</v>
@@ -31813,7 +31813,7 @@
         <v>0.9900480149405734</v>
       </c>
       <c r="Q21">
-        <v>29.46075732002097</v>
+        <v>29.46075732002098</v>
       </c>
       <c r="R21">
         <v>-90.63269605031626</v>
@@ -34427,7 +34427,7 @@
         <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-8.694071102708296E-11</v>
+        <v>-8.694078099077405E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -34477,7 +34477,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9526279482343815</v>
+        <v>0.9526279482343816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -34486,7 +34486,7 @@
         <v>0.9526279813293725</v>
       </c>
       <c r="Q3">
-        <v>8.313215066396879E-08</v>
+        <v>8.313212643433774E-08</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -34536,7 +34536,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656298</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -34545,13 +34545,13 @@
         <v>0.9526279956981217</v>
       </c>
       <c r="Q4">
-        <v>5.152361523965036E-07</v>
+        <v>5.152361332730462E-07</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.999999484755</v>
+        <v>179.9999994847549</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -34595,16 +34595,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279368906295</v>
+        <v>0.9526279368906296</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279926731211</v>
+        <v>0.9526279926731215</v>
       </c>
       <c r="Q5">
-        <v>4.242667901750028E-07</v>
+        <v>4.242667659424976E-07</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -34663,7 +34663,7 @@
         <v>0.952627997210621</v>
       </c>
       <c r="Q6">
-        <v>5.607206527811399E-07</v>
+        <v>5.607206285475054E-07</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9526279285718781</v>
+        <v>0.9526279285718784</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9526280009918705</v>
+        <v>0.9526280009918707</v>
       </c>
       <c r="Q7">
-        <v>6.744322008184266E-07</v>
+        <v>6.744321727286502E-07</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9526279278156279</v>
+        <v>0.9526279278156281</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9526280017481206</v>
+        <v>0.9526280017481209</v>
       </c>
       <c r="Q8">
-        <v>6.971745110578895E-07</v>
+        <v>6.971744829680107E-07</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -34837,16 +34837,16 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.9526280032606206</v>
+        <v>0.9526280032606208</v>
       </c>
       <c r="Q9">
-        <v>7.426591276834043E-07</v>
+        <v>7.426590995931147E-07</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>179.9999992573318</v>
+        <v>179.9999992573319</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -34899,13 +34899,13 @@
         <v>0.9526280047731207</v>
       </c>
       <c r="Q10">
-        <v>7.881437416254983E-07</v>
+        <v>7.881437135349009E-07</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>179.9999992118472</v>
+        <v>179.9999992118473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -34949,7 +34949,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.9526279240343772</v>
+        <v>0.9526279240343773</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -34958,7 +34958,7 @@
         <v>0.9526280055293707</v>
       </c>
       <c r="Q11">
-        <v>8.108860461056119E-07</v>
+        <v>8.108860180149119E-07</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -35008,16 +35008,16 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9526279459656311</v>
+        <v>0.9526279459656312</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9526279835981227</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q12">
-        <v>1.513590720551103E-07</v>
+        <v>1.513590326937092E-07</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -35067,16 +35067,16 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9526279459656308</v>
+        <v>0.9526279459656311</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9526279835981226</v>
+        <v>0.9526279835981228</v>
       </c>
       <c r="Q13">
-        <v>1.513590563005375E-07</v>
+        <v>1.51359032070496E-07</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -35132,16 +35132,16 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9526279858668723</v>
+        <v>0.9526279858668725</v>
       </c>
       <c r="Q14">
-        <v>2.19586030486346E-07</v>
+        <v>2.195860039899501E-07</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>179.9999997804051</v>
+        <v>179.999999780405</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -35191,10 +35191,10 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9526279873793718</v>
+        <v>0.9526279873793719</v>
       </c>
       <c r="Q15">
-        <v>2.650706274100409E-07</v>
+        <v>2.650706031788705E-07</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -35244,7 +35244,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9526279467218812</v>
+        <v>0.9526279467218814</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -35253,7 +35253,7 @@
         <v>0.9526279828418727</v>
       </c>
       <c r="Q16">
-        <v>1.286167647669185E-07</v>
+        <v>1.286167254056199E-07</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -35303,16 +35303,16 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.952627946721881</v>
+        <v>0.9526279467218812</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9526279828418724</v>
+        <v>0.9526279828418727</v>
       </c>
       <c r="Q17">
-        <v>1.286167490123459E-07</v>
+        <v>1.28616724782407E-07</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -35362,16 +35362,16 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9526279399156306</v>
+        <v>0.9526279399156304</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.952627989648122</v>
+        <v>0.9526279896481222</v>
       </c>
       <c r="Q18">
-        <v>3.332976152808618E-07</v>
+        <v>3.332975905367748E-07</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -35421,16 +35421,16 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9526279368906304</v>
+        <v>0.9526279368906302</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9526279926731218</v>
+        <v>0.9526279926731219</v>
       </c>
       <c r="Q19">
-        <v>4.242668877868737E-07</v>
+        <v>4.242668660248746E-07</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9526279346218803</v>
+        <v>0.95262793462188</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0.9526279949418718</v>
       </c>
       <c r="Q20">
-        <v>4.924938463011247E-07</v>
+        <v>4.924938270929455E-07</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -35539,22 +35539,22 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9526279338656303</v>
+        <v>0.9526279338656298</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.9526279956981217</v>
+        <v>0.9526279956981218</v>
       </c>
       <c r="Q21">
-        <v>5.152361523965036E-07</v>
+        <v>5.152361370434397E-07</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>179.999999484755</v>
+        <v>179.9999994847549</v>
       </c>
     </row>
   </sheetData>
